--- a/assets/filexcel/Templates.xlsx
+++ b/assets/filexcel/Templates.xlsx
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
     <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -431,68 +431,68 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F10" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/filexcel/Templates.xlsx
+++ b/assets/filexcel/Templates.xlsx
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,21 +71,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,18 +154,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Style 1" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
@@ -421,78 +528,90 @@
     <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
